--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17448" windowHeight="8375"/>
+    <workbookView windowWidth="21288" windowHeight="10535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
     <sheet name="设备类型代码表" sheetId="2" r:id="rId2"/>
     <sheet name="设备状态代码表" sheetId="3" r:id="rId3"/>
+    <sheet name="操作类型代码表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>资产编号</t>
   </si>
@@ -123,24 +124,30 @@
     <t>名称</t>
   </si>
   <si>
-    <t>dyj</t>
+    <t>DYJ</t>
   </si>
   <si>
     <t>打印机</t>
   </si>
   <si>
-    <t>jsj1</t>
+    <t>JSJ</t>
   </si>
   <si>
     <t>计算机</t>
   </si>
   <si>
-    <t>wl</t>
+    <t>JHJ</t>
   </si>
   <si>
     <t>交换机</t>
   </si>
   <si>
+    <t>LYQ</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -181,6 +188,18 @@
   </si>
   <si>
     <t>已调离（不在市局管理范围）</t>
+  </si>
+  <si>
+    <t>分发</t>
+  </si>
+  <si>
+    <t>回收</t>
+  </si>
+  <si>
+    <t>报废</t>
+  </si>
+  <si>
+    <t>借调</t>
   </si>
 </sst>
 </file>
@@ -189,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -362,36 +381,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,42 +429,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,91 +477,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,129 +680,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,15 +819,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1177,7 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1246,13 +1265,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1284,6 +1303,14 @@
       </c>
       <c r="B4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1326,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A1" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1317,58 +1344,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1376,4 +1403,64 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="38.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="10535" activeTab="3"/>
+    <workbookView windowWidth="21288" windowHeight="11484" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
     <sheet name="设备类型代码表" sheetId="2" r:id="rId2"/>
     <sheet name="设备状态代码表" sheetId="3" r:id="rId3"/>
     <sheet name="操作类型代码表" sheetId="4" r:id="rId4"/>
+    <sheet name="设备属性代码表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>资产编号</t>
   </si>
@@ -103,7 +104,7 @@
     <t>供应商</t>
   </si>
   <si>
-    <t>设备状态</t>
+    <t>设备状态（新版无此列）</t>
   </si>
   <si>
     <t>请参照设备类型代码表</t>
@@ -151,55 +152,85 @@
     <t>1</t>
   </si>
   <si>
-    <t>个人在用</t>
+    <t>在库</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>科室公用</t>
+    <t>在用</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>待分配（存信息中心、可分配）</t>
+    <t>借用</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>已借用（属信息中心、其他科室借用）</t>
+    <t>在途</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>不可用（已坏未报废）</t>
+    <t>报废</t>
+  </si>
+  <si>
+    <t>设备入库</t>
+  </si>
+  <si>
+    <t>设备出库</t>
+  </si>
+  <si>
+    <t>分配共用</t>
+  </si>
+  <si>
+    <t>分配专有</t>
+  </si>
+  <si>
+    <t>借出共用</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>已报废（收回至信息中心）</t>
+    <t>借出专有</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>已调离（不在市局管理范围）</t>
-  </si>
-  <si>
-    <t>分发</t>
-  </si>
-  <si>
-    <t>回收</t>
-  </si>
-  <si>
-    <t>报废</t>
-  </si>
-  <si>
-    <t>借调</t>
+    <t>设备收回</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>设备交回</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>设备报废</t>
+  </si>
+  <si>
+    <t>在库设备</t>
+  </si>
+  <si>
+    <t>在途设备</t>
+  </si>
+  <si>
+    <t>共用设备</t>
+  </si>
+  <si>
+    <t>专有设备</t>
+  </si>
+  <si>
+    <t>报废设备</t>
   </si>
 </sst>
 </file>
@@ -207,9 +238,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -228,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -240,6 +279,89 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,16 +373,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,98 +390,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,19 +418,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,157 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +617,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +675,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,39 +703,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,7 +1209,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1323,15 +1354,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="38.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="5.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1382,21 +1413,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1408,15 +1435,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="38.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1432,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1440,7 +1468,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1448,7 +1476,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1456,8 +1484,129 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="11484" activeTab="4"/>
+    <workbookView windowWidth="21288" windowHeight="11075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
@@ -238,10 +238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -256,6 +256,127 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,130 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,187 +412,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,36 +617,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,11 +645,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +694,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -711,10 +711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1354,13 +1354,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="5.66666666666667" customWidth="1"/>
   </cols>
@@ -1412,18 +1412,6 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,13 +1524,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
@@ -1596,18 +1584,6 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="11075" activeTab="4"/>
+    <workbookView windowWidth="21288" windowHeight="11075"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
@@ -17,54 +17,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Lzhm</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>红色字体为必填项</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">红色字体为必填项
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">红色字体为必填项
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
@@ -238,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -261,37 +213,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +241,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -343,35 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +320,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -412,6 +364,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,19 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,12 +442,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,12 +496,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,85 +526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +612,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -683,26 +655,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -711,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1289,7 +1241,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1526,7 +1478,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="11075"/>
+    <workbookView windowWidth="21288" windowHeight="11075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,27 @@
     <sheet name="操作类型代码表" sheetId="4" r:id="rId4"/>
     <sheet name="设备属性代码表" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="资产分类" localSheetId="1">设备类型代码表!$A$4:$C$114</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="资产分类1" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="C:\Users\乔中华\Desktop\资产分类.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>资产编号</t>
   </si>
@@ -74,34 +89,346 @@
     <t>代码</t>
   </si>
   <si>
+    <t>上级代码</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
-    <t>DYJ</t>
-  </si>
-  <si>
-    <t>打印机</t>
-  </si>
-  <si>
-    <t>JSJ</t>
-  </si>
-  <si>
-    <t>计算机</t>
-  </si>
-  <si>
-    <t>JHJ</t>
+    <t>资产分类</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>固定资产</t>
+  </si>
+  <si>
+    <t>通用设备</t>
+  </si>
+  <si>
+    <t>计算机设备</t>
+  </si>
+  <si>
+    <t>巨/大/中型机</t>
+  </si>
+  <si>
+    <t>小型机</t>
+  </si>
+  <si>
+    <t>PC服务器</t>
+  </si>
+  <si>
+    <t>台式计算机</t>
+  </si>
+  <si>
+    <t>台式计算机-通用</t>
+  </si>
+  <si>
+    <t>台式计算机-非通用</t>
+  </si>
+  <si>
+    <t>便携式计算机</t>
+  </si>
+  <si>
+    <t>其他计算机设备</t>
+  </si>
+  <si>
+    <t>计算机网络设备</t>
+  </si>
+  <si>
+    <t>路由器</t>
   </si>
   <si>
     <t>交换机</t>
   </si>
   <si>
-    <t>LYQ</t>
-  </si>
-  <si>
-    <t>路由器</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>集线器</t>
+  </si>
+  <si>
+    <t>终端接入设备</t>
+  </si>
+  <si>
+    <t>其他网络设备</t>
+  </si>
+  <si>
+    <t>安全设备</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>入侵检测设备</t>
+  </si>
+  <si>
+    <t>漏洞扫描设备</t>
+  </si>
+  <si>
+    <t>计算机终端安全设备</t>
+  </si>
+  <si>
+    <t>终端设备</t>
+  </si>
+  <si>
+    <t>存储设备</t>
+  </si>
+  <si>
+    <t>磁盘机</t>
+  </si>
+  <si>
+    <t>磁盘阵列</t>
+  </si>
+  <si>
+    <t>存储用光纤交换机</t>
+  </si>
+  <si>
+    <t>磁带机</t>
+  </si>
+  <si>
+    <t>磁带库</t>
+  </si>
+  <si>
+    <t>网络存储设备</t>
+  </si>
+  <si>
+    <t>移动存储设备</t>
+  </si>
+  <si>
+    <t>活动硬盘</t>
+  </si>
+  <si>
+    <t>优盘</t>
+  </si>
+  <si>
+    <t>其他存储设备</t>
+  </si>
+  <si>
+    <t>小型存储设备</t>
+  </si>
+  <si>
+    <t>磁卡写卡器</t>
+  </si>
+  <si>
+    <t>其他小型存储设备</t>
+  </si>
+  <si>
+    <t>输入输出设备</t>
+  </si>
+  <si>
+    <t>打印设备</t>
+  </si>
+  <si>
+    <t>针式打印机</t>
+  </si>
+  <si>
+    <t>激光式打印机</t>
+  </si>
+  <si>
+    <t>喷墨式打印机</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>显示器</t>
+  </si>
+  <si>
+    <t>CRT显示器</t>
+  </si>
+  <si>
+    <t>液晶显示器</t>
+  </si>
+  <si>
+    <t>等离子显示器</t>
+  </si>
+  <si>
+    <t>其他显示器</t>
+  </si>
+  <si>
+    <t>扫描仪</t>
+  </si>
+  <si>
+    <t>手持扫描</t>
+  </si>
+  <si>
+    <t>平板扫描</t>
+  </si>
+  <si>
+    <t>高速扫描</t>
+  </si>
+  <si>
+    <t>高拍仪</t>
+  </si>
+  <si>
+    <t>其他输入输出设备</t>
+  </si>
+  <si>
+    <t>机房辅助设备</t>
+  </si>
+  <si>
+    <t>机柜</t>
+  </si>
+  <si>
+    <t>机房环境监控设备</t>
+  </si>
+  <si>
+    <t>其他机房辅助设备</t>
+  </si>
+  <si>
+    <t>办公设备</t>
+  </si>
+  <si>
+    <t>复印机</t>
+  </si>
+  <si>
+    <t>投影仪</t>
+  </si>
+  <si>
+    <t>光学投影仪</t>
+  </si>
+  <si>
+    <t>激光投影仪</t>
+  </si>
+  <si>
+    <t>多功能一体机</t>
+  </si>
+  <si>
+    <t>照相机及器材</t>
+  </si>
+  <si>
+    <t>光学照相机</t>
+  </si>
+  <si>
+    <t>数码照相机</t>
+  </si>
+  <si>
+    <t>照相机镜头</t>
+  </si>
+  <si>
+    <t>其他照相机械及器材</t>
+  </si>
+  <si>
+    <t>刻录机</t>
+  </si>
+  <si>
+    <t>外置可擦写光驱</t>
+  </si>
+  <si>
+    <t>CD-Write刻录机</t>
+  </si>
+  <si>
+    <t>碎纸机</t>
+  </si>
+  <si>
+    <t>会计机械</t>
+  </si>
+  <si>
+    <t>其他办公设备</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>电源设备</t>
+  </si>
+  <si>
+    <t>不间断电源（UPS）</t>
+  </si>
+  <si>
+    <t>多用电源</t>
+  </si>
+  <si>
+    <t>变频器</t>
+  </si>
+  <si>
+    <t>充电机</t>
+  </si>
+  <si>
+    <t>其他电源设备</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>无线电通信设备</t>
+  </si>
+  <si>
+    <t>通用无线电通信设备</t>
+  </si>
+  <si>
+    <t>移动通信(网)设备</t>
+  </si>
+  <si>
+    <t>电话通信设备</t>
+  </si>
+  <si>
+    <t>固定电话机</t>
+  </si>
+  <si>
+    <t>移动电话</t>
+  </si>
+  <si>
+    <t>电话交换设备</t>
+  </si>
+  <si>
+    <t>会议电话调度设备及市话中继设备</t>
+  </si>
+  <si>
+    <t>其他电话通信设备</t>
+  </si>
+  <si>
+    <t>传真及数据数字通信设备</t>
+  </si>
+  <si>
+    <t>传真通信设备</t>
+  </si>
+  <si>
+    <t>广播、电视、电影设备</t>
+  </si>
+  <si>
+    <t>视频节目制作和播控设备</t>
+  </si>
+  <si>
+    <t>视频信息处理设备</t>
+  </si>
+  <si>
+    <t>无形资产</t>
+  </si>
+  <si>
+    <t>专利权</t>
+  </si>
+  <si>
+    <t>非专利技术</t>
+  </si>
+  <si>
+    <t>商标权</t>
+  </si>
+  <si>
+    <t>著作权</t>
+  </si>
+  <si>
+    <t>土地使用权</t>
+  </si>
+  <si>
+    <t>特许权</t>
+  </si>
+  <si>
+    <t>计算机软件</t>
+  </si>
+  <si>
+    <t>基础软件</t>
+  </si>
+  <si>
+    <t>支撑软件</t>
+  </si>
+  <si>
+    <t>应用软件</t>
+  </si>
+  <si>
+    <t>其他计算机软件</t>
   </si>
   <si>
     <t>在库</t>
@@ -189,13 +516,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,10 +532,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,11 +593,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,11 +608,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,7 +662,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,7 +677,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -303,51 +692,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -364,7 +708,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,175 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +899,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,65 +922,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +949,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,144 +1019,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,6 +1234,18 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="资产分类" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,7 +1537,7 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1560,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1192,7 +1569,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1216,7 +1593,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1241,64 +1618,1281 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="27.0833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.0833333333333" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="41.8055555555556" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.7222222222222" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>10602</v>
+      </c>
+      <c r="B4" s="5">
+        <v>106</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10602</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>106020101</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>10602010101</v>
+      </c>
+      <c r="B7" s="5">
+        <v>106020101</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>10602010102</v>
+      </c>
+      <c r="B8" s="5">
+        <v>106020101</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>10602010103</v>
+      </c>
+      <c r="B9" s="5">
+        <v>106020101</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>10602010104</v>
+      </c>
+      <c r="B10" s="5">
+        <v>106020101</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>1060201010401</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10602010104</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>1060201010402</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10602010104</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>10602010105</v>
+      </c>
+      <c r="B13" s="5">
+        <v>106020101</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>10602010199</v>
+      </c>
+      <c r="B14" s="5">
+        <v>106020101</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>106020102</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>10602010201</v>
+      </c>
+      <c r="B16" s="5">
+        <v>106020102</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>10602010202</v>
+      </c>
+      <c r="B17" s="5">
+        <v>106020102</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>10602010204</v>
+      </c>
+      <c r="B18" s="5">
+        <v>106020102</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>10602010206</v>
+      </c>
+      <c r="B19" s="5">
+        <v>106020102</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>10602010299</v>
+      </c>
+      <c r="B20" s="5">
+        <v>106020102</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>106020103</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>10602010301</v>
+      </c>
+      <c r="B22" s="5">
+        <v>106020103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>10602010302</v>
+      </c>
+      <c r="B23" s="5">
+        <v>106020103</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>10602010303</v>
+      </c>
+      <c r="B24" s="5">
+        <v>106020103</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5">
+        <v>10602010304</v>
+      </c>
+      <c r="B25" s="5">
+        <v>106020103</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>106020104</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <v>10602010501</v>
+      </c>
+      <c r="B28" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5">
+        <v>10602010502</v>
+      </c>
+      <c r="B29" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>10602010503</v>
+      </c>
+      <c r="B30" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>10602010505</v>
+      </c>
+      <c r="B31" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>10602010506</v>
+      </c>
+      <c r="B32" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>10602010507</v>
+      </c>
+      <c r="B33" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <v>10602010508</v>
+      </c>
+      <c r="B34" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>1060201050801</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10602010508</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5">
+        <v>1060201050802</v>
+      </c>
+      <c r="B36" s="5">
+        <v>10602010508</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5">
+        <v>10602010509</v>
+      </c>
+      <c r="B37" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <v>10602010599</v>
+      </c>
+      <c r="B38" s="5">
+        <v>106020105</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5">
+        <v>1060201059901</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10602010599</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5">
+        <v>1060201059902</v>
+      </c>
+      <c r="B40" s="5">
+        <v>10602010599</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5">
+        <v>1060201059903</v>
+      </c>
+      <c r="B41" s="5">
+        <v>10602010599</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5">
+        <v>106020106</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5">
+        <v>10602010601</v>
+      </c>
+      <c r="B43" s="5">
+        <v>106020106</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5">
+        <v>1060201060101</v>
+      </c>
+      <c r="B44" s="5">
+        <v>10602010601</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5">
+        <v>1060201060102</v>
+      </c>
+      <c r="B45" s="5">
+        <v>10602010601</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5">
+        <v>1060201060103</v>
+      </c>
+      <c r="B46" s="5">
+        <v>10602010601</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5">
+        <v>1060201060104</v>
+      </c>
+      <c r="B47" s="5">
+        <v>10602010601</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5">
+        <v>10602010604</v>
+      </c>
+      <c r="B48" s="5">
+        <v>106020106</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5">
+        <v>1060201060401</v>
+      </c>
+      <c r="B49" s="5">
+        <v>10602010604</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5">
+        <v>1060201060402</v>
+      </c>
+      <c r="B50" s="5">
+        <v>10602010604</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5">
+        <v>1060201060403</v>
+      </c>
+      <c r="B51" s="5">
+        <v>10602010604</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5">
+        <v>1060201060404</v>
+      </c>
+      <c r="B52" s="5">
+        <v>10602010604</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <v>10602010605</v>
+      </c>
+      <c r="B53" s="5">
+        <v>106020106</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <v>1060201060501</v>
+      </c>
+      <c r="B54" s="5">
+        <v>10602010605</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5">
+        <v>1060201060502</v>
+      </c>
+      <c r="B55" s="5">
+        <v>10602010605</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5">
+        <v>1060201060503</v>
+      </c>
+      <c r="B56" s="5">
+        <v>10602010605</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5">
+        <v>1060201060504</v>
+      </c>
+      <c r="B57" s="5">
+        <v>10602010605</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5">
+        <v>10602010699</v>
+      </c>
+      <c r="B58" s="5">
+        <v>106020106</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5">
+        <v>106020107</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5">
+        <v>10602010701</v>
+      </c>
+      <c r="B60" s="5">
+        <v>106020107</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5">
+        <v>10602010702</v>
+      </c>
+      <c r="B61" s="5">
+        <v>106020107</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5">
+        <v>10602010799</v>
+      </c>
+      <c r="B62" s="5">
+        <v>106020107</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5">
+        <v>106020199</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1060201</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="B64" s="5">
+        <v>10602</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5">
+        <v>106020201</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5">
+        <v>106020202</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5">
+        <v>1060202020001</v>
+      </c>
+      <c r="B67" s="5">
+        <v>106020202</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5">
+        <v>1060202020002</v>
+      </c>
+      <c r="B68" s="5">
+        <v>106020202</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5">
+        <v>106020203</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5">
+        <v>106020204</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5">
+        <v>1060202040001</v>
+      </c>
+      <c r="B71" s="5">
+        <v>106020204</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5">
+        <v>1060202040002</v>
+      </c>
+      <c r="B72" s="5">
+        <v>106020204</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5">
+        <v>1060202040003</v>
+      </c>
+      <c r="B73" s="5">
+        <v>106020204</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5">
+        <v>1060202040004</v>
+      </c>
+      <c r="B74" s="5">
+        <v>106020204</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5">
+        <v>106020208</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5">
+        <v>1060202080001</v>
+      </c>
+      <c r="B76" s="5">
+        <v>106020208</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5">
+        <v>1060202080002</v>
+      </c>
+      <c r="B77" s="5">
+        <v>106020208</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5">
+        <v>106020210</v>
+      </c>
+      <c r="B78" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5">
+        <v>106020213</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5">
+        <v>106020299</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1060202</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5">
+        <v>1060220</v>
+      </c>
+      <c r="B81" s="5">
+        <v>10602</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5">
+        <v>106022007</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1060220</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5">
+        <v>10602200702</v>
+      </c>
+      <c r="B83" s="5">
+        <v>106022007</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5">
+        <v>10602200703</v>
+      </c>
+      <c r="B84" s="5">
+        <v>106022007</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5">
+        <v>10602200704</v>
+      </c>
+      <c r="B85" s="5">
+        <v>106022007</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5">
+        <v>10602200705</v>
+      </c>
+      <c r="B86" s="5">
+        <v>106022007</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5">
+        <v>10602200799</v>
+      </c>
+      <c r="B87" s="5">
+        <v>106022007</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5">
+        <v>1060231</v>
+      </c>
+      <c r="B88" s="5">
+        <v>10602</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5">
+        <v>106023101</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1060231</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5">
+        <v>10602310101</v>
+      </c>
+      <c r="B90" s="5">
+        <v>106023101</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5">
+        <v>10602310102</v>
+      </c>
+      <c r="B91" s="5">
+        <v>106023101</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5">
+        <v>106023107</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1060231</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5">
+        <v>10602310701</v>
+      </c>
+      <c r="B93" s="5">
+        <v>106023107</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5">
+        <v>10602310702</v>
+      </c>
+      <c r="B94" s="5">
+        <v>106023107</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5">
+        <v>10602310703</v>
+      </c>
+      <c r="B95" s="5">
+        <v>106023107</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5">
+        <v>10602310704</v>
+      </c>
+      <c r="B96" s="5">
+        <v>106023107</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5">
+        <v>10602310799</v>
+      </c>
+      <c r="B97" s="5">
+        <v>106023107</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5">
+        <v>106023110</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1060231</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5">
+        <v>10602311001</v>
+      </c>
+      <c r="B99" s="5">
+        <v>106023110</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5">
+        <v>1060232</v>
+      </c>
+      <c r="B100" s="5">
+        <v>10602</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5">
+        <v>106023204</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1060232</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5">
+        <v>10602320406</v>
+      </c>
+      <c r="B102" s="5">
+        <v>106023204</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="1" spans="1:3">
+      <c r="A103" s="7">
+        <v>107</v>
+      </c>
+      <c r="B103" s="7">
+        <v>1</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5">
+        <v>10701</v>
+      </c>
+      <c r="B104" s="5">
+        <v>107</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5">
+        <v>10702</v>
+      </c>
+      <c r="B105" s="5">
+        <v>107</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5">
+        <v>10703</v>
+      </c>
+      <c r="B106" s="5">
+        <v>107</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5">
+        <v>10704</v>
+      </c>
+      <c r="B107" s="5">
+        <v>107</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5">
+        <v>10705</v>
+      </c>
+      <c r="B108" s="5">
+        <v>107</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5">
+        <v>10706</v>
+      </c>
+      <c r="B109" s="5">
+        <v>107</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5">
+        <v>10707</v>
+      </c>
+      <c r="B110" s="5">
+        <v>107</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5">
+        <v>1070701</v>
+      </c>
+      <c r="B111" s="5">
+        <v>10707</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5">
+        <v>1070702</v>
+      </c>
+      <c r="B112" s="5">
+        <v>10707</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5">
+        <v>1070703</v>
+      </c>
+      <c r="B113" s="5">
+        <v>10707</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5">
+        <v>1070799</v>
+      </c>
+      <c r="B114" s="5">
+        <v>10707</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1322,47 +2916,47 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1392,79 +2986,79 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1493,47 +3087,47 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="11075" activeTab="1"/>
+    <workbookView windowWidth="21288" windowHeight="11075"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>资产编号</t>
   </si>
@@ -44,46 +44,25 @@
     <t>设备名称</t>
   </si>
   <si>
+    <t>购入日期</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>设备来源</t>
+  </si>
+  <si>
+    <t>生产日期</t>
+  </si>
+  <si>
+    <t>生产商</t>
+  </si>
+  <si>
     <t>设备型号</t>
   </si>
   <si>
-    <t>序列号</t>
-  </si>
-  <si>
-    <t>设备来源</t>
-  </si>
-  <si>
-    <t>生产商</t>
-  </si>
-  <si>
-    <t>生产日期</t>
-  </si>
-  <si>
-    <t>购入日期</t>
-  </si>
-  <si>
-    <t>设备报废年限</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
     <t>供应商</t>
-  </si>
-  <si>
-    <t>设备状态（新版无此列）</t>
-  </si>
-  <si>
-    <t>请参照设备类型代码表</t>
-  </si>
-  <si>
-    <t>填写设备唯一标识码</t>
-  </si>
-  <si>
-    <t>20XX-XX-XX</t>
-  </si>
-  <si>
-    <t>请参照设备状态代码表</t>
   </si>
   <si>
     <t>代码</t>
@@ -517,13 +496,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,7 +522,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -556,15 +537,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -585,6 +558,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -593,16 +589,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,39 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +657,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -692,6 +672,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -699,12 +687,162 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -720,61 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,66 +870,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -858,37 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,15 +893,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -922,6 +907,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,11 +944,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,21 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -999,6 +984,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1007,10 +1001,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,137 +1013,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,7 +1156,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1177,7 +1171,19 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1535,21 +1541,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.3148148148148" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.66666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.66666666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
@@ -1557,62 +1563,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1626,7 +1609,7 @@
   <sheetPr/>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1641,13 +1624,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1656,18 +1639,18 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1678,7 +1661,7 @@
         <v>106</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1689,7 +1672,7 @@
         <v>10602</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1700,7 +1683,7 @@
         <v>1060201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1711,7 +1694,7 @@
         <v>106020101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1722,7 +1705,7 @@
         <v>106020101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1733,7 +1716,7 @@
         <v>106020101</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1744,7 +1727,7 @@
         <v>106020101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1738,7 @@
         <v>10602010104</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1766,7 +1749,7 @@
         <v>10602010104</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1777,7 +1760,7 @@
         <v>106020101</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1788,7 +1771,7 @@
         <v>106020101</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1799,7 +1782,7 @@
         <v>1060201</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1810,7 +1793,7 @@
         <v>106020102</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1821,7 +1804,7 @@
         <v>106020102</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1832,7 +1815,7 @@
         <v>106020102</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1843,7 +1826,7 @@
         <v>106020102</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1854,7 +1837,7 @@
         <v>106020102</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1865,7 +1848,7 @@
         <v>1060201</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1876,7 +1859,7 @@
         <v>106020103</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1887,7 +1870,7 @@
         <v>106020103</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1898,7 +1881,7 @@
         <v>106020103</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1909,7 +1892,7 @@
         <v>106020103</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1920,7 +1903,7 @@
         <v>1060201</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1931,7 +1914,7 @@
         <v>1060201</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1942,7 +1925,7 @@
         <v>106020105</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1953,7 +1936,7 @@
         <v>106020105</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1964,7 +1947,7 @@
         <v>106020105</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1975,7 +1958,7 @@
         <v>106020105</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1986,7 +1969,7 @@
         <v>106020105</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1997,7 +1980,7 @@
         <v>106020105</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2008,7 +1991,7 @@
         <v>106020105</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2019,7 +2002,7 @@
         <v>10602010508</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2030,7 +2013,7 @@
         <v>10602010508</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2041,7 +2024,7 @@
         <v>106020105</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2052,7 +2035,7 @@
         <v>106020105</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2063,7 +2046,7 @@
         <v>10602010599</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2074,7 +2057,7 @@
         <v>10602010599</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2085,7 +2068,7 @@
         <v>10602010599</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2096,7 +2079,7 @@
         <v>1060201</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2107,7 +2090,7 @@
         <v>106020106</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2118,7 +2101,7 @@
         <v>10602010601</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2129,7 +2112,7 @@
         <v>10602010601</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2140,7 +2123,7 @@
         <v>10602010601</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2151,7 +2134,7 @@
         <v>10602010601</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2162,7 +2145,7 @@
         <v>106020106</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2173,7 +2156,7 @@
         <v>10602010604</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2184,7 +2167,7 @@
         <v>10602010604</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2195,7 +2178,7 @@
         <v>10602010604</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2206,7 +2189,7 @@
         <v>10602010604</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2217,7 +2200,7 @@
         <v>106020106</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2228,7 +2211,7 @@
         <v>10602010605</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2239,7 +2222,7 @@
         <v>10602010605</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2250,7 +2233,7 @@
         <v>10602010605</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2261,7 +2244,7 @@
         <v>10602010605</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2272,7 +2255,7 @@
         <v>106020106</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2283,7 +2266,7 @@
         <v>1060201</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2294,7 +2277,7 @@
         <v>106020107</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2305,7 +2288,7 @@
         <v>106020107</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2316,7 +2299,7 @@
         <v>106020107</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2327,7 +2310,7 @@
         <v>1060201</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2338,7 +2321,7 @@
         <v>10602</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2349,7 +2332,7 @@
         <v>1060202</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2360,7 +2343,7 @@
         <v>1060202</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2371,7 +2354,7 @@
         <v>106020202</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2382,7 +2365,7 @@
         <v>106020202</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2393,7 +2376,7 @@
         <v>1060202</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2404,7 +2387,7 @@
         <v>1060202</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2415,7 +2398,7 @@
         <v>106020204</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2426,7 +2409,7 @@
         <v>106020204</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2437,7 +2420,7 @@
         <v>106020204</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2448,7 +2431,7 @@
         <v>106020204</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2459,7 +2442,7 @@
         <v>1060202</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2470,7 +2453,7 @@
         <v>106020208</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2481,7 +2464,7 @@
         <v>106020208</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2492,7 +2475,7 @@
         <v>1060202</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2503,7 +2486,7 @@
         <v>1060202</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2514,7 +2497,7 @@
         <v>1060202</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2525,7 +2508,7 @@
         <v>10602</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2536,7 +2519,7 @@
         <v>1060220</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2547,7 +2530,7 @@
         <v>106022007</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2558,7 +2541,7 @@
         <v>106022007</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2569,7 +2552,7 @@
         <v>106022007</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2580,7 +2563,7 @@
         <v>106022007</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2591,7 +2574,7 @@
         <v>106022007</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2602,7 +2585,7 @@
         <v>10602</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2613,7 +2596,7 @@
         <v>1060231</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2624,7 +2607,7 @@
         <v>106023101</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2635,7 +2618,7 @@
         <v>106023101</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2646,7 +2629,7 @@
         <v>1060231</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2657,7 +2640,7 @@
         <v>106023107</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2668,7 +2651,7 @@
         <v>106023107</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2679,7 +2662,7 @@
         <v>106023107</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2690,7 +2673,7 @@
         <v>106023107</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2701,7 +2684,7 @@
         <v>106023107</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2712,7 +2695,7 @@
         <v>1060231</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2723,7 +2706,7 @@
         <v>106023110</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2734,7 +2717,7 @@
         <v>10602</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2745,7 +2728,7 @@
         <v>1060232</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2756,7 +2739,7 @@
         <v>106023204</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:3">
@@ -2767,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2778,7 +2761,7 @@
         <v>107</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2789,7 +2772,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2800,7 +2783,7 @@
         <v>107</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2811,7 +2794,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2822,7 +2805,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2833,7 +2816,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2844,7 +2827,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2855,7 +2838,7 @@
         <v>10707</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2866,7 +2849,7 @@
         <v>10707</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2877,7 +2860,7 @@
         <v>10707</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2888,7 +2871,7 @@
         <v>10707</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2913,50 +2896,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2983,82 +2966,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>137</v>
-      </c>
-      <c r="B5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3084,50 +3067,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>资产编号</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>设备名称</t>
+  </si>
+  <si>
+    <t>序列号</t>
   </si>
   <si>
     <t>购入日期</t>
@@ -502,7 +505,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,45 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,22 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,22 +579,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,6 +639,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -702,6 +698,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -726,25 +746,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,12 +836,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -817,48 +855,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,30 +912,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,6 +965,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1001,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1179,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,20 +1540,17 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.66666666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="23.1111111111111" style="1" customWidth="1"/>
   </cols>
@@ -1593,8 +1586,9 @@
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M1" s="13"/>
     </row>
   </sheetData>
@@ -1624,13 +1618,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1639,18 +1633,18 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1661,7 +1655,7 @@
         <v>106</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1672,7 +1666,7 @@
         <v>10602</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1683,7 +1677,7 @@
         <v>1060201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1694,7 +1688,7 @@
         <v>106020101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1705,7 +1699,7 @@
         <v>106020101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1716,7 +1710,7 @@
         <v>106020101</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1727,7 +1721,7 @@
         <v>106020101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1738,7 +1732,7 @@
         <v>10602010104</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1749,7 +1743,7 @@
         <v>10602010104</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1760,7 +1754,7 @@
         <v>106020101</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1771,7 +1765,7 @@
         <v>106020101</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1782,7 +1776,7 @@
         <v>1060201</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1793,7 +1787,7 @@
         <v>106020102</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1804,7 +1798,7 @@
         <v>106020102</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1815,7 +1809,7 @@
         <v>106020102</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1826,7 +1820,7 @@
         <v>106020102</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1837,7 +1831,7 @@
         <v>106020102</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1848,7 +1842,7 @@
         <v>1060201</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1859,7 +1853,7 @@
         <v>106020103</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1870,7 +1864,7 @@
         <v>106020103</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1881,7 +1875,7 @@
         <v>106020103</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1892,7 +1886,7 @@
         <v>106020103</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1903,7 +1897,7 @@
         <v>1060201</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1914,7 +1908,7 @@
         <v>1060201</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1925,7 +1919,7 @@
         <v>106020105</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1936,7 +1930,7 @@
         <v>106020105</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1947,7 +1941,7 @@
         <v>106020105</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1958,7 +1952,7 @@
         <v>106020105</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1969,7 +1963,7 @@
         <v>106020105</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1980,7 +1974,7 @@
         <v>106020105</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1991,7 +1985,7 @@
         <v>106020105</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2002,7 +1996,7 @@
         <v>10602010508</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2013,7 +2007,7 @@
         <v>10602010508</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2024,7 +2018,7 @@
         <v>106020105</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2035,7 +2029,7 @@
         <v>106020105</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2046,7 +2040,7 @@
         <v>10602010599</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2057,7 +2051,7 @@
         <v>10602010599</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2068,7 +2062,7 @@
         <v>10602010599</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2079,7 +2073,7 @@
         <v>1060201</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2090,7 +2084,7 @@
         <v>106020106</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2101,7 +2095,7 @@
         <v>10602010601</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2112,7 +2106,7 @@
         <v>10602010601</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2123,7 +2117,7 @@
         <v>10602010601</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2134,7 +2128,7 @@
         <v>10602010601</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2145,7 +2139,7 @@
         <v>106020106</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2156,7 +2150,7 @@
         <v>10602010604</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2167,7 +2161,7 @@
         <v>10602010604</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2178,7 +2172,7 @@
         <v>10602010604</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2189,7 +2183,7 @@
         <v>10602010604</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2200,7 +2194,7 @@
         <v>106020106</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2211,7 +2205,7 @@
         <v>10602010605</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2222,7 +2216,7 @@
         <v>10602010605</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2233,7 +2227,7 @@
         <v>10602010605</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2244,7 +2238,7 @@
         <v>10602010605</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2255,7 +2249,7 @@
         <v>106020106</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2266,7 +2260,7 @@
         <v>1060201</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2277,7 +2271,7 @@
         <v>106020107</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2288,7 +2282,7 @@
         <v>106020107</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2299,7 +2293,7 @@
         <v>106020107</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2310,7 +2304,7 @@
         <v>1060201</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2321,7 +2315,7 @@
         <v>10602</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2332,7 +2326,7 @@
         <v>1060202</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2343,7 +2337,7 @@
         <v>1060202</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2354,7 +2348,7 @@
         <v>106020202</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2365,7 +2359,7 @@
         <v>106020202</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2376,7 +2370,7 @@
         <v>1060202</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2387,7 +2381,7 @@
         <v>1060202</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2398,7 +2392,7 @@
         <v>106020204</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2409,7 +2403,7 @@
         <v>106020204</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2420,7 +2414,7 @@
         <v>106020204</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2431,7 +2425,7 @@
         <v>106020204</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2442,7 +2436,7 @@
         <v>1060202</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2453,7 +2447,7 @@
         <v>106020208</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2464,7 +2458,7 @@
         <v>106020208</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2475,7 +2469,7 @@
         <v>1060202</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2486,7 +2480,7 @@
         <v>1060202</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2497,7 +2491,7 @@
         <v>1060202</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2508,7 +2502,7 @@
         <v>10602</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2519,7 +2513,7 @@
         <v>1060220</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2530,7 +2524,7 @@
         <v>106022007</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2541,7 +2535,7 @@
         <v>106022007</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2552,7 +2546,7 @@
         <v>106022007</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2563,7 +2557,7 @@
         <v>106022007</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2574,7 +2568,7 @@
         <v>106022007</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2585,7 +2579,7 @@
         <v>10602</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2596,7 +2590,7 @@
         <v>1060231</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2607,7 +2601,7 @@
         <v>106023101</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2618,7 +2612,7 @@
         <v>106023101</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2629,7 +2623,7 @@
         <v>1060231</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2640,7 +2634,7 @@
         <v>106023107</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2651,7 +2645,7 @@
         <v>106023107</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2662,7 +2656,7 @@
         <v>106023107</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2673,7 +2667,7 @@
         <v>106023107</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2684,7 +2678,7 @@
         <v>106023107</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2695,7 +2689,7 @@
         <v>1060231</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2706,7 +2700,7 @@
         <v>106023110</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2717,7 +2711,7 @@
         <v>10602</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2728,7 +2722,7 @@
         <v>1060232</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2739,7 +2733,7 @@
         <v>106023204</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:3">
@@ -2750,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2761,7 +2755,7 @@
         <v>107</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2772,7 +2766,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2783,7 +2777,7 @@
         <v>107</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2794,7 +2788,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2805,7 +2799,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2816,7 +2810,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2827,7 +2821,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2838,7 +2832,7 @@
         <v>10707</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2849,7 +2843,7 @@
         <v>10707</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2860,7 +2854,7 @@
         <v>10707</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2871,7 +2865,7 @@
         <v>10707</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2896,50 +2890,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2966,82 +2960,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3067,50 +3061,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="11075"/>
+    <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
     <t>资产编号</t>
   </si>
   <si>
+    <t>序列号</t>
+  </si>
+  <si>
     <t>设备类型</t>
   </si>
   <si>
     <t>设备名称</t>
-  </si>
-  <si>
-    <t>序列号</t>
   </si>
   <si>
     <t>购入日期</t>
@@ -499,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
@@ -525,14 +525,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -548,7 +548,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,37 +612,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,30 +631,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -647,30 +645,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,8 +675,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,7 +692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +722,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +764,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,157 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,17 +886,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,16 +920,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,26 +969,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,137 +1003,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,19 +1161,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,10 +1525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1555,7 +1543,7 @@
     <col min="13" max="13" width="23.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1571,25 +1559,24 @@
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="10535"/>
+    <workbookView windowWidth="21288" windowHeight="10535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>资产编号</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>设备报废</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>设备上交</t>
   </si>
   <si>
     <t>在库设备</t>
@@ -500,8 +506,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -539,8 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,70 +555,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,6 +585,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -647,23 +669,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,13 +688,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -689,6 +695,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -698,85 +830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,31 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,49 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,17 +910,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,17 +946,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,17 +981,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1527,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2933,10 +2939,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3023,6 +3029,14 @@
       </c>
       <c r="B10" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3067,7 +3081,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3075,7 +3089,7 @@
         <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3083,7 +3097,7 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3091,7 +3105,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/export/device.xlsx
+++ b/runtime/export/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="10535" activeTab="1"/>
+    <workbookView windowWidth="21323" windowHeight="10127" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>资产编号</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>设备上交</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>机构变更</t>
   </si>
   <si>
     <t>在库设备</t>
@@ -589,10 +595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -623,6 +629,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -679,13 +700,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,14 +771,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -781,6 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -914,12 +926,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,6 +978,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1038,21 +1059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1080,10 +1086,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,133 +1098,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,7 +1323,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1661,7 +1667,7 @@
   <sheetPr/>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
@@ -3002,10 +3008,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3100,6 +3106,14 @@
       </c>
       <c r="B11" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3150,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3144,7 +3158,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3152,7 +3166,7 @@
         <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3160,7 +3174,7 @@
         <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3168,7 +3182,7 @@
         <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
